--- a/Task 2/Optimalization_simlex.xlsx
+++ b/Task 2/Optimalization_simlex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metior\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\3 yr\MOE\Optimalisation\Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>baza</t>
   </si>
@@ -83,13 +83,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>x1 =-100</t>
-  </si>
-  <si>
-    <t>x2=-400</t>
-  </si>
-  <si>
-    <t>x(-1)</t>
+    <t>Zj_Cj</t>
   </si>
 </sst>
 </file>
@@ -97,8 +91,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -231,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,10 +299,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="20" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -619,29 +617,21 @@
       <c r="I1" s="21">
         <v>0</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21">
-        <v>-100</v>
-      </c>
-      <c r="Q1" s="21">
-        <v>-400</v>
-      </c>
-      <c r="R1" s="21">
-        <v>0</v>
-      </c>
-      <c r="S1" s="21">
-        <v>0</v>
-      </c>
-      <c r="T1" s="21">
-        <v>0</v>
-      </c>
-      <c r="U1" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,38 +662,21 @@
       <c r="J2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -735,39 +708,21 @@
         <f>C3/E3</f>
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>14</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>2</v>
-      </c>
-      <c r="R3" s="6">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <f>O3/Q3</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -798,38 +753,21 @@
       <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>14</v>
-      </c>
-      <c r="P4" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -858,42 +796,24 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J6" si="0">C5/E5</f>
+        <f t="shared" ref="J5" si="0">C5/E5</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="M5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="21">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
-        <v>14</v>
-      </c>
-      <c r="P5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>12</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0</v>
-      </c>
-      <c r="S5" s="20">
-        <v>0</v>
-      </c>
-      <c r="T5" s="18">
-        <v>1</v>
-      </c>
-      <c r="U5" s="20">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ref="V5:V6" si="1">O5/Q5</f>
-        <v>1.1666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,40 +846,24 @@
         <v>18</v>
       </c>
       <c r="K6" s="18"/>
-      <c r="M6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="15">
-        <f>-(4/5)</f>
-        <v>-0.8</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="23">
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23">
-        <v>1</v>
-      </c>
-      <c r="V6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>0</v>
@@ -982,31 +886,66 @@
       <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>400</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1028,29 +967,21 @@
       <c r="I11" s="21">
         <v>0</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21">
-        <v>-100</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>-400</v>
-      </c>
-      <c r="R11" s="21">
-        <v>0</v>
-      </c>
-      <c r="S11" s="21">
-        <v>0</v>
-      </c>
-      <c r="T11" s="21">
-        <v>0</v>
-      </c>
-      <c r="U11" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,38 +1012,21 @@
       <c r="J12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1150,38 +1064,21 @@
         <f>C13/H13</f>
         <v>-70</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <f>O3-Q3*O6/Q6</f>
-        <v>14</v>
-      </c>
-      <c r="P13" s="17">
-        <f>P3-Q3*P6/Q6</f>
-        <v>3.5</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>0</v>
-      </c>
-      <c r="R13" s="17">
-        <v>1</v>
-      </c>
-      <c r="S13" s="16">
-        <v>0</v>
-      </c>
-      <c r="T13" s="17">
-        <v>0</v>
-      </c>
-      <c r="U13" s="16">
-        <f>U3-Q3*U6/Q6</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,38 +1116,21 @@
       <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <f>O4-Q4*O6/Q6</f>
-        <v>14</v>
-      </c>
-      <c r="P14" s="18">
-        <f>P4-Q4*P6/Q6</f>
-        <v>9</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="18">
-        <v>0</v>
-      </c>
-      <c r="S14" s="20">
-        <v>1</v>
-      </c>
-      <c r="T14" s="18">
-        <v>0</v>
-      </c>
-      <c r="U14" s="20">
-        <f>U4-U6*Q4/Q6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
@@ -1289,38 +1169,21 @@
       <c r="J15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="21">
-        <v>0</v>
-      </c>
-      <c r="O15" s="22">
-        <f>O5-Q5*O6/Q6</f>
-        <v>14</v>
-      </c>
-      <c r="P15" s="18">
-        <f>P5-Q5*P6/Q6</f>
-        <v>15</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>0</v>
-      </c>
-      <c r="R15" s="18">
-        <v>0</v>
-      </c>
-      <c r="S15" s="20">
-        <v>0</v>
-      </c>
-      <c r="T15" s="18">
-        <v>1</v>
-      </c>
-      <c r="U15" s="20">
-        <f>U5-U6*Q5/Q6</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -1358,39 +1221,21 @@
         <f>C16/H16</f>
         <v>14.000000000000002</v>
       </c>
-      <c r="M16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="21">
-        <v>-400</v>
-      </c>
-      <c r="O16" s="22">
-        <f>O6/Q6</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="19">
-        <f>P6/Q6</f>
-        <v>-1.25</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>1</v>
-      </c>
-      <c r="R16" s="19">
-        <f>R6/Q6</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="24">
-        <v>0</v>
-      </c>
-      <c r="T16" s="19">
-        <v>0</v>
-      </c>
-      <c r="U16" s="24">
-        <f>U6/Q6</f>
-        <v>-1.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -1421,34 +1266,66 @@
         <f>I11-(I13*B13+I14*B14+I15*B15+I16*B16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16">
-        <v>0</v>
-      </c>
-      <c r="P17" s="20">
-        <f>P11-(P16*N16)</f>
-        <v>-600</v>
-      </c>
-      <c r="Q17" s="20">
-        <f>Q11-(Q16*N16)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="20">
-        <v>0</v>
-      </c>
-      <c r="S17" s="20">
-        <v>0</v>
-      </c>
-      <c r="T17" s="20">
-        <v>0</v>
-      </c>
-      <c r="U17" s="20">
-        <f>U11-(U16*N16)</f>
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -1470,8 +1347,21 @@
       <c r="I21" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,8 +1389,21 @@
       <c r="I22" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1533,8 +1436,21 @@
         <f>I13-I16*D13/D16</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1567,8 +1483,21 @@
         <f>I14-I16*D14/D16</f>
         <v>-9</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>13</v>
       </c>
@@ -1601,8 +1530,21 @@
         <f>I15-I16*D15/D16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>12</v>
       </c>
@@ -1635,8 +1577,21 @@
         <f>I16/D16</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
@@ -1668,20 +1623,64 @@
       <c r="J27" t="s">
         <v>17</v>
       </c>
-      <c r="L27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" t="s">
-        <v>21</v>
-      </c>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
